--- a/Datasets/Parts and Dimesions.xlsx
+++ b/Datasets/Parts and Dimesions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauravgoyal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5E2D5-BE55-BC45-B10B-4A091BFDAC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BBED7E5-6076-4A33-A3C3-397DAE775220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8475" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Collection" sheetId="1" r:id="rId1"/>
@@ -105,21 +105,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -127,7 +127,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +135,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,35 +143,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +179,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,14 +187,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,14 +202,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +217,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,14 +225,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -649,39 +649,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -733,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -844,6 +844,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -852,13 +859,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -923,31 +923,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,9 +941,9 @@
       <selection activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -997,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1014,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1031,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1048,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1065,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1082,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1099,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1116,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1133,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1147,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1164,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1181,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1195,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1212,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1229,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1246,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1263,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1280,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1294,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1311,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1328,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1345,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1362,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1379,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1396,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1413,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1430,7 +1410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1447,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1458,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1475,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1489,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1506,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1523,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1540,7 +1520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1557,7 +1537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1574,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1591,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1605,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1622,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1639,7 +1619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1656,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1673,7 +1653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1690,7 +1670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1707,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1724,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1741,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1758,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1775,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1792,7 +1772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1809,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1826,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1843,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1860,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1877,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1894,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1911,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1928,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1945,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1959,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1976,7 +1956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1993,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2010,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2027,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2044,7 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2061,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2078,7 +2058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2095,7 +2075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2112,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2129,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2146,7 +2126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2163,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2180,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2197,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2214,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2231,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2248,7 +2228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2265,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2282,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2299,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2316,7 +2296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2333,7 +2313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2350,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2367,7 +2347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2384,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2401,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2418,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2435,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2452,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2469,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2486,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2503,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2520,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2537,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2554,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2571,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2588,7 +2568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2605,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2622,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2636,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2653,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2670,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2687,7 +2667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2704,7 +2684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2721,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2738,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2755,7 +2735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2772,7 +2752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2789,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2806,7 +2786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2823,7 +2803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2840,7 +2820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2857,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2874,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2888,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2905,7 +2885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2922,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2939,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2956,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2970,7 +2950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2987,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3004,7 +2984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3021,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3038,7 +3018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3055,7 +3035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3072,7 +3052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3089,7 +3069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3106,7 +3086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3123,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3140,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3157,7 +3137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3171,7 +3151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3188,7 +3168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3205,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3222,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3239,7 +3219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3256,7 +3236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3273,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3290,7 +3270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3304,7 +3284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3318,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3335,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3352,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3369,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3386,7 +3366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3403,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3420,7 +3400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3434,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3451,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3465,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3482,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3499,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3516,7 +3496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3533,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3550,7 +3530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3567,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3584,7 +3564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3601,7 +3581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3618,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3635,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3652,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3669,7 +3649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3686,7 +3666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3703,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3720,7 +3700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3734,7 +3714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3751,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3768,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3785,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3802,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3819,7 +3799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3836,7 +3816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3853,7 +3833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3870,7 +3850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3887,7 +3867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3904,7 +3884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3921,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3938,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3955,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3972,7 +3952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3989,7 +3969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4003,7 +3983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4020,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4037,7 +4017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4054,7 +4034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4071,7 +4051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4088,7 +4068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4105,7 +4085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4122,7 +4102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4139,7 +4119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4156,7 +4136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4173,7 +4153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4190,7 +4170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4204,7 +4184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4221,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4235,7 +4215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4252,7 +4232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4269,7 +4249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4286,7 +4266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4300,7 +4280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4317,7 +4297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4334,7 +4314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4351,7 +4331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4368,7 +4348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4385,7 +4365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4402,7 +4382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4419,7 +4399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4433,7 +4413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4450,7 +4430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4464,7 +4444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4481,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4498,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4515,7 +4495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4532,7 +4512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4549,7 +4529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4566,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4583,7 +4563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4600,7 +4580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4617,7 +4597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4634,7 +4614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4651,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4668,7 +4648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4682,7 +4662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4699,7 +4679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4716,7 +4696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4730,7 +4710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4747,7 +4727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4764,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4781,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4798,7 +4778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4815,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4832,7 +4812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4849,7 +4829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4866,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4883,7 +4863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4897,7 +4877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4914,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4931,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4948,7 +4928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4965,7 +4945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4979,7 +4959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4996,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5013,7 +4993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5030,7 +5010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5047,7 +5027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5064,7 +5044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5081,7 +5061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5098,7 +5078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5115,7 +5095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5132,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5149,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5166,7 +5146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5183,7 +5163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5200,7 +5180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5217,7 +5197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5234,7 +5214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5251,7 +5231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5268,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5285,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5302,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5316,7 +5296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5333,7 +5313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5350,7 +5330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5367,7 +5347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5384,7 +5364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5401,7 +5381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5418,7 +5398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5435,7 +5415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5452,7 +5432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5469,7 +5449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5486,7 +5466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5503,7 +5483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5520,7 +5500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5537,7 +5517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -5554,7 +5534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -5571,7 +5551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -5588,7 +5568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -5605,7 +5585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -5619,7 +5599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -5636,7 +5616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -5653,7 +5633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -5670,7 +5650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -5687,7 +5667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -5704,7 +5684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -5721,7 +5701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -5738,7 +5718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -5755,7 +5735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -5772,7 +5752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -5789,7 +5769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -5806,7 +5786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -5823,7 +5803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -5840,7 +5820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -5857,7 +5837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5874,7 +5854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5891,7 +5871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5908,7 +5888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5925,7 +5905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5942,7 +5922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5959,7 +5939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5973,7 +5953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5990,7 +5970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6007,7 +5987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6024,7 +6004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6041,7 +6021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6058,7 +6038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6075,7 +6055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6092,7 +6072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6109,7 +6089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6126,7 +6106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6143,7 +6123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6160,7 +6140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6177,7 +6157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6191,7 +6171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6208,7 +6188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6225,7 +6205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6242,7 +6222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6259,7 +6239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6276,7 +6256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6293,7 +6273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6310,7 +6290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6327,7 +6307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6344,7 +6324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6361,7 +6341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6378,7 +6358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6395,7 +6375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -6412,7 +6392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -6429,7 +6409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -6446,7 +6426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6463,7 +6443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6480,7 +6460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -6497,7 +6477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -6514,7 +6494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -6531,7 +6511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -6548,7 +6528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -6562,7 +6542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -6579,7 +6559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -6596,7 +6576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -6613,7 +6593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -6630,7 +6610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -6647,7 +6627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -6664,7 +6644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -6681,7 +6661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -6698,7 +6678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -6715,7 +6695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -6732,7 +6712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -6749,7 +6729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -6766,7 +6746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -6783,7 +6763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -6800,7 +6780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -6817,7 +6797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -6834,7 +6814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -6851,7 +6831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -6868,7 +6848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -6885,7 +6865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -6902,7 +6882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -6919,7 +6899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -6936,7 +6916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -6953,7 +6933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -6970,7 +6950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -6984,7 +6964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7001,7 +6981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7018,7 +6998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7035,7 +7015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7052,7 +7032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7069,7 +7049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7086,7 +7066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7103,7 +7083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7120,7 +7100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7137,7 +7117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7154,7 +7134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7171,7 +7151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7188,7 +7168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7205,7 +7185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7222,7 +7202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7239,7 +7219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7256,7 +7236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7273,7 +7253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7287,7 +7267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7304,7 +7284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7321,7 +7301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7338,7 +7318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7355,7 +7335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7372,7 +7352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7389,7 +7369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7406,7 +7386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7423,7 +7403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7440,7 +7420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7457,7 +7437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7474,7 +7454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -7491,7 +7471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -7508,7 +7488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -7525,7 +7505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -7542,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -7556,7 +7536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -7573,7 +7553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -7590,7 +7570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -7607,7 +7587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -7624,7 +7604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -7641,7 +7621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -7658,7 +7638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -7675,7 +7655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -7692,7 +7672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -7709,7 +7689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -7726,7 +7706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -7743,7 +7723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -7760,7 +7740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -7777,7 +7757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -7794,7 +7774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -7811,7 +7791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -7828,7 +7808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -7845,7 +7825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -7862,7 +7842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -7879,7 +7859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -7896,7 +7876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -7913,7 +7893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -7930,7 +7910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -7947,7 +7927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -7964,7 +7944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -7981,7 +7961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -7998,7 +7978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8015,7 +7995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8032,7 +8012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8049,7 +8029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8066,7 +8046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8083,7 +8063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8100,7 +8080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8117,7 +8097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8134,7 +8114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8151,7 +8131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8168,7 +8148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8185,7 +8165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8202,7 +8182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8216,7 +8196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8233,7 +8213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8250,7 +8230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8267,7 +8247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8284,7 +8264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8301,7 +8281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8318,7 +8298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8335,7 +8315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8349,7 +8329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8366,7 +8346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -8383,7 +8363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -8400,7 +8380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -8417,7 +8397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -8434,7 +8414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8451,7 +8431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -8468,7 +8448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -8482,7 +8462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -8499,7 +8479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -8516,7 +8496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -8533,7 +8513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -8547,7 +8527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -8561,7 +8541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -8578,7 +8558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -8595,7 +8575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -8612,7 +8592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -8629,7 +8609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -8646,7 +8626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -8663,7 +8643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -8680,7 +8660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -8697,7 +8677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -8714,7 +8694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -8731,7 +8711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -8748,7 +8728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -8765,7 +8745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -8782,7 +8762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -8799,7 +8779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -8816,7 +8796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -8833,7 +8813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -8850,7 +8830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -8864,7 +8844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -8881,7 +8861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -8898,7 +8878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -8915,7 +8895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -8932,7 +8912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -8949,7 +8929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -8966,7 +8946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -8983,7 +8963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -8997,7 +8977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -9014,7 +8994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -9031,7 +9011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -9048,7 +9028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -9062,7 +9042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -9079,7 +9059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -9096,7 +9076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -9113,7 +9093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -9130,7 +9110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -9147,7 +9127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -9161,7 +9141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -9178,7 +9158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -9195,7 +9175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -9212,7 +9192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -9226,7 +9206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -9243,7 +9223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -9260,7 +9240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -9277,7 +9257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -9294,7 +9274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -9308,7 +9288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -9325,7 +9305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
